--- a/CustomLocalization-RU/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
@@ -1927,15 +1927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="75.28515625" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
